--- a/Zeitleisten/Noehrer_zeitliste.xlsx
+++ b/Zeitleisten/Noehrer_zeitliste.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="14412" tabRatio="992"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="14415" tabRatio="992"/>
   </bookViews>
   <sheets>
     <sheet name="zeitliste" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="122">
   <si>
     <t>Datum</t>
   </si>
@@ -383,6 +383,9 @@
   </si>
   <si>
     <t>VOIP-Session Aurednik: API für Sensoren planen / entwerfen</t>
+  </si>
+  <si>
+    <t>Abschlussveranstaltung, Präsentation</t>
   </si>
 </sst>
 </file>
@@ -823,14 +826,14 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="79.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="79.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="5" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -841,7 +844,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>43144</v>
       </c>
@@ -852,7 +855,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>43148</v>
       </c>
@@ -863,7 +866,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>43150</v>
       </c>
@@ -874,7 +877,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>43150</v>
       </c>
@@ -885,7 +888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>43150</v>
       </c>
@@ -896,7 +899,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>43163</v>
       </c>
@@ -907,7 +910,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>43163</v>
       </c>
@@ -918,7 +921,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>43163</v>
       </c>
@@ -929,7 +932,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>43164</v>
       </c>
@@ -940,7 +943,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>43164</v>
       </c>
@@ -951,7 +954,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>43170</v>
       </c>
@@ -962,7 +965,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>43170</v>
       </c>
@@ -973,7 +976,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>43170</v>
       </c>
@@ -984,7 +987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>43170</v>
       </c>
@@ -995,7 +998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>43171</v>
       </c>
@@ -1006,7 +1009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>43171</v>
       </c>
@@ -1017,7 +1020,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>43171</v>
       </c>
@@ -1028,7 +1031,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>43171</v>
       </c>
@@ -1039,7 +1042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>43171</v>
       </c>
@@ -1050,7 +1053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>43171</v>
       </c>
@@ -1061,7 +1064,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>43171</v>
       </c>
@@ -1072,7 +1075,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>43173</v>
       </c>
@@ -1083,7 +1086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>43176</v>
       </c>
@@ -1094,7 +1097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>43176</v>
       </c>
@@ -1105,7 +1108,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>43176</v>
       </c>
@@ -1116,7 +1119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>43176</v>
       </c>
@@ -1127,7 +1130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>43178</v>
       </c>
@@ -1138,7 +1141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>43178</v>
       </c>
@@ -1149,7 +1152,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>43178</v>
       </c>
@@ -1160,7 +1163,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>43184</v>
       </c>
@@ -1171,7 +1174,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>43184</v>
       </c>
@@ -1182,7 +1185,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>43187</v>
       </c>
@@ -1193,7 +1196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>43197</v>
       </c>
@@ -1204,7 +1207,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>43197</v>
       </c>
@@ -1215,7 +1218,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>43197</v>
       </c>
@@ -1226,7 +1229,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>43198</v>
       </c>
@@ -1237,7 +1240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>43198</v>
       </c>
@@ -1248,7 +1251,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>43198</v>
       </c>
@@ -1259,7 +1262,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>43198</v>
       </c>
@@ -1270,7 +1273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>43201</v>
       </c>
@@ -1281,7 +1284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>43211</v>
       </c>
@@ -1292,7 +1295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>43211</v>
       </c>
@@ -1303,7 +1306,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>43211</v>
       </c>
@@ -1314,7 +1317,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>43211</v>
       </c>
@@ -1325,7 +1328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>43211</v>
       </c>
@@ -1336,7 +1339,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>43212</v>
       </c>
@@ -1347,7 +1350,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>43212</v>
       </c>
@@ -1358,7 +1361,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>43212</v>
       </c>
@@ -1369,7 +1372,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>43212</v>
       </c>
@@ -1380,7 +1383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>43213</v>
       </c>
@@ -1391,7 +1394,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>43213</v>
       </c>
@@ -1402,7 +1405,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>43217</v>
       </c>
@@ -1413,7 +1416,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>43217</v>
       </c>
@@ -1424,7 +1427,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>43217</v>
       </c>
@@ -1435,7 +1438,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>43219</v>
       </c>
@@ -1446,7 +1449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>43219</v>
       </c>
@@ -1457,7 +1460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>43219</v>
       </c>
@@ -1468,7 +1471,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>43219</v>
       </c>
@@ -1479,7 +1482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>43220</v>
       </c>
@@ -1490,7 +1493,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>43220</v>
       </c>
@@ -1501,7 +1504,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>43221</v>
       </c>
@@ -1512,7 +1515,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>43229</v>
       </c>
@@ -1523,7 +1526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>43230</v>
       </c>
@@ -1534,7 +1537,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>43230</v>
       </c>
@@ -1545,7 +1548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>43230</v>
       </c>
@@ -1556,7 +1559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>43230</v>
       </c>
@@ -1567,7 +1570,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>43230</v>
       </c>
@@ -1578,7 +1581,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>43230</v>
       </c>
@@ -1589,7 +1592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>43230</v>
       </c>
@@ -1600,7 +1603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>43232</v>
       </c>
@@ -1611,7 +1614,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>43232</v>
       </c>
@@ -1622,7 +1625,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>43232</v>
       </c>
@@ -1633,7 +1636,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>43237</v>
       </c>
@@ -1644,7 +1647,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>43237</v>
       </c>
@@ -1655,7 +1658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>43237</v>
       </c>
@@ -1666,7 +1669,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>43238</v>
       </c>
@@ -1677,7 +1680,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>43238</v>
       </c>
@@ -1688,7 +1691,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <v>43238</v>
       </c>
@@ -1699,7 +1702,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <v>43241</v>
       </c>
@@ -1710,7 +1713,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>43241</v>
       </c>
@@ -1721,7 +1724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <v>43241</v>
       </c>
@@ -1732,7 +1735,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <v>43242</v>
       </c>
@@ -1743,7 +1746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
         <v>43255</v>
       </c>
@@ -1754,7 +1757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <v>43255</v>
       </c>
@@ -1765,7 +1768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
         <v>43260</v>
       </c>
@@ -1776,7 +1779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
         <v>43260</v>
       </c>
@@ -1787,7 +1790,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
         <v>43260</v>
       </c>
@@ -1798,7 +1801,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
         <v>43260</v>
       </c>
@@ -1809,7 +1812,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
         <v>43261</v>
       </c>
@@ -1820,7 +1823,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
         <v>43261</v>
       </c>
@@ -1831,7 +1834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
         <v>43268</v>
       </c>
@@ -1842,7 +1845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
         <v>43268</v>
       </c>
@@ -1853,7 +1856,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
         <v>43269</v>
       </c>
@@ -1864,7 +1867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
         <v>43269</v>
       </c>
@@ -1875,7 +1878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
         <v>43274</v>
       </c>
@@ -1886,7 +1889,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
         <v>43274</v>
       </c>
@@ -1897,7 +1900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
         <v>43274</v>
       </c>
@@ -1908,7 +1911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
         <v>43274</v>
       </c>
@@ -1919,7 +1922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
         <v>43275</v>
       </c>
@@ -1930,7 +1933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
         <v>43275</v>
       </c>
@@ -1941,7 +1944,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
         <v>43275</v>
       </c>
@@ -1952,7 +1955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
         <v>43275</v>
       </c>
@@ -1963,7 +1966,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
         <v>43275</v>
       </c>
@@ -1974,7 +1977,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
         <v>43280</v>
       </c>
@@ -1985,7 +1988,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
         <v>43280</v>
       </c>
@@ -1996,7 +1999,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
         <v>43280</v>
       </c>
@@ -2007,7 +2010,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
         <v>43280</v>
       </c>
@@ -2018,7 +2021,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
         <v>43280</v>
       </c>
@@ -2029,7 +2032,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
         <v>43281</v>
       </c>
@@ -2040,7 +2043,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" s="2">
         <v>43281</v>
       </c>
@@ -2051,7 +2054,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" s="2">
         <v>43281</v>
       </c>
@@ -2062,7 +2065,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" s="2">
         <v>43281</v>
       </c>
@@ -2073,7 +2076,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" s="2">
         <v>43281</v>
       </c>
@@ -2084,7 +2087,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" s="2">
         <v>43282</v>
       </c>
@@ -2095,7 +2098,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" s="2">
         <v>43282</v>
       </c>
@@ -2106,7 +2109,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" s="2">
         <v>43282</v>
       </c>
@@ -2117,7 +2120,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" s="2">
         <v>43282</v>
       </c>
@@ -2128,7 +2131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" s="2">
         <v>43282</v>
       </c>
@@ -2139,16 +2142,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:3" s="9" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120" s="2">
+        <v>43283</v>
+      </c>
+      <c r="B120" t="s">
+        <v>121</v>
+      </c>
+      <c r="C120">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" s="9" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="8"/>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B122" s="7" t="s">
         <v>115</v>
       </c>
       <c r="C122">
-        <f>SUM($C2:$C119)</f>
-        <v>150</v>
+        <f>SUM($C2:$C120)</f>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
